--- a/Documentação/Planilhas/Layouts/Layout_CAP.xlsx
+++ b/Documentação/Planilhas/Layouts/Layout_CAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="stg_cap_conciliacao_cap_car" sheetId="79" r:id="rId1"/>
@@ -1478,7 +1478,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1498,7 +1498,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1538,7 +1538,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1558,7 +1558,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1598,7 +1598,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1618,7 +1618,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1658,7 +1658,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1678,7 +1678,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1718,7 +1718,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1738,7 +1738,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1778,7 +1778,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1798,7 +1798,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1838,7 +1838,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1858,7 +1858,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1898,7 +1898,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1918,7 +1918,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>

--- a/Documentação/Planilhas/Layouts/Layout_CAP.xlsx
+++ b/Documentação/Planilhas/Layouts/Layout_CAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="stg_cap_conciliacao_cap_car" sheetId="79" r:id="rId1"/>
@@ -1457,31 +1457,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1489,22 +1483,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1846170" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1517,31 +1502,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1549,22 +1528,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1847850" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1577,31 +1547,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="3074" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1609,22 +1573,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1846170" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1637,31 +1592,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="4098" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1669,22 +1618,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1847850" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1697,31 +1637,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="5122" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1729,22 +1663,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1847850" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1757,31 +1682,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="6146" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1789,22 +1708,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1846170" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1817,31 +1727,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="7170" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1849,22 +1753,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1846170" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1877,31 +1772,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="8194" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1909,22 +1798,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1846170" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2222,7 +2102,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4884,7 +4764,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
